--- a/HRAF_NLP/HRAF_MultiLabel_ThreeLargeClasses_kfoldsDemo/Evaluation.xlsx
+++ b/HRAF_NLP/HRAF_MultiLabel_ThreeLargeClasses_kfoldsDemo/Evaluation.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericchantland/Library/CloudStorage/Dropbox/MEM-DEV-LAB-Current/2023-eHRAF-Misf/HRAF-Misf-NaturalLanguageProcessing/HRAF_NLP/HRAF_MultiLabel_ThreeLargeClasses_kfoldsDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DB325-1813-2B4E-96BF-12FC493315F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB0B252-68D5-A54A-8773-2AC5E14C1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,23 +82,26 @@
     <t>24/04/19</t>
   </si>
   <si>
-    <t>24/04/21</t>
-  </si>
-  <si>
-    <t>24/04/22</t>
-  </si>
-  <si>
     <t>24/04/23</t>
   </si>
   <si>
-    <t>The evalutaion for weight decay was scrambled a bit due to data leakage. Here is the results for the weight decay check. Note, due to the loooong run times, we expect wight decay loops to be ran over multiple days</t>
+    <t>24/04/26</t>
+  </si>
+  <si>
+    <t>24/04/27</t>
+  </si>
+  <si>
+    <t>24/04/28</t>
+  </si>
+  <si>
+    <t>24/04/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,18 +116,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,16 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,28 +1909,28 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H26">
-        <v>2.4590171873569489E-2</v>
+        <v>0.50947898626327515</v>
       </c>
       <c r="I26">
-        <v>0.99260823653643071</v>
+        <v>0.85434116445352404</v>
       </c>
       <c r="J26">
-        <v>0.99158722924816123</v>
+        <v>0.8324389502867342</v>
       </c>
       <c r="K26">
-        <v>0.97664835164835162</v>
+        <v>0.65521978021978022</v>
       </c>
       <c r="L26">
-        <v>316.69670000000002</v>
+        <v>316.56400000000002</v>
       </c>
       <c r="M26">
-        <v>4.5970000000000004</v>
+        <v>4.5990000000000002</v>
       </c>
       <c r="N26">
         <v>0.57499999999999996</v>
       </c>
       <c r="O26">
-        <v>0.99260823653643071</v>
+        <v>0.85434116445352404</v>
       </c>
       <c r="P26">
         <v>5820</v>
@@ -1974,28 +1965,28 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H27">
-        <v>1.6859078779816631E-2</v>
+        <v>0.50342357158660889</v>
       </c>
       <c r="I27">
-        <v>0.99539170506912444</v>
+        <v>0.85110704854763353</v>
       </c>
       <c r="J27">
-        <v>0.99458599858530505</v>
+        <v>0.82726976604199132</v>
       </c>
       <c r="K27">
-        <v>0.9862542955326461</v>
+        <v>0.64329896907216499</v>
       </c>
       <c r="L27">
-        <v>333.14339999999999</v>
+        <v>334.62799999999999</v>
       </c>
       <c r="M27">
-        <v>4.367</v>
+        <v>4.3479999999999999</v>
       </c>
       <c r="N27">
-        <v>0.54600000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="O27">
-        <v>0.99539170506912444</v>
+        <v>0.85110704854763353</v>
       </c>
       <c r="P27">
         <v>5821</v>
@@ -2030,28 +2021,28 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="H28">
-        <v>2.7441248297691349E-2</v>
+        <v>0.44370585680007929</v>
       </c>
       <c r="I28">
-        <v>0.9933718195424418</v>
+        <v>0.86006683375104431</v>
       </c>
       <c r="J28">
-        <v>0.99263011431153025</v>
+        <v>0.84381916682801628</v>
       </c>
       <c r="K28">
-        <v>0.98075601374570442</v>
+        <v>0.6563573883161512</v>
       </c>
       <c r="L28">
-        <v>315.79989999999998</v>
+        <v>337.93090000000001</v>
       </c>
       <c r="M28">
-        <v>4.6070000000000002</v>
+        <v>4.306</v>
       </c>
       <c r="N28">
-        <v>0.57599999999999996</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="O28">
-        <v>0.9933718195424418</v>
+        <v>0.86006683375104431</v>
       </c>
       <c r="P28">
         <v>5821</v>
@@ -2065,1030 +2056,957 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G29">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H29">
-        <v>7.1512885391712189E-2</v>
-      </c>
-      <c r="I29">
-        <v>0.98471204188481676</v>
-      </c>
-      <c r="J29">
-        <v>0.98263581063210781</v>
-      </c>
-      <c r="K29">
-        <v>0.9553264604810997</v>
-      </c>
-      <c r="L29">
-        <v>323.86669999999998</v>
-      </c>
-      <c r="M29">
-        <v>4.4930000000000003</v>
-      </c>
-      <c r="N29">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="O29">
-        <v>0.98471204188481676</v>
-      </c>
-      <c r="P29">
-        <v>5821</v>
-      </c>
-      <c r="Q29">
-        <v>1455</v>
-      </c>
-      <c r="R29">
-        <v>7276</v>
+      <c r="G29" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.47710399999999997</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.83611000000000002</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.65544599999999997</v>
+      </c>
+      <c r="L29" s="2">
+        <v>330.53190000000001</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="P29" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R29" s="2">
+        <v>7578</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.50669600000000004</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.827878</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.65412499999999996</v>
+      </c>
+      <c r="L30" s="2">
+        <v>331.87880000000001</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="P30" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R30" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.48564400000000002</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.852302</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.83412200000000003</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.64182099999999997</v>
+      </c>
+      <c r="L31" s="2">
+        <v>331.39580000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.852302</v>
+      </c>
+      <c r="P31" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R31" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.50206300000000004</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.85423099999999996</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.82754099999999997</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.64379900000000001</v>
+      </c>
+      <c r="L32" s="2">
+        <v>341.18509999999998</v>
+      </c>
+      <c r="M32" s="2">
+        <v>4.4429999999999996</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.85423099999999996</v>
+      </c>
+      <c r="P32" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R32" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.51438899999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.846777</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.81964899999999996</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.635884</v>
+      </c>
+      <c r="L33" s="2">
+        <v>333.88</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4.5410000000000004</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.846777</v>
+      </c>
+      <c r="P33" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R33" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G30">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H30">
-        <v>1.310570072382689E-2</v>
-      </c>
-      <c r="I30">
-        <v>0.99720490217157598</v>
-      </c>
-      <c r="J30">
-        <v>0.99687834887958238</v>
-      </c>
-      <c r="K30">
-        <v>0.99243986254295535</v>
-      </c>
-      <c r="L30">
-        <v>318.81020000000001</v>
-      </c>
-      <c r="M30">
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.47710399999999997</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.83611000000000002</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.65544599999999997</v>
+      </c>
+      <c r="L34" s="2">
+        <v>328.73599999999999</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4.609</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="P34" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R34" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.50669600000000004</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.827878</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.65412499999999996</v>
+      </c>
+      <c r="L35" s="2">
+        <v>331.86970000000002</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="P35" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R35" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.48564400000000002</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.852302</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.83412200000000003</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.64182099999999997</v>
+      </c>
+      <c r="L36" s="2">
+        <v>331.08580000000001</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.852302</v>
+      </c>
+      <c r="P36" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R36" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.50206300000000004</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.85423099999999996</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.82754099999999997</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.64379900000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <v>346.45580000000001</v>
+      </c>
+      <c r="M37" s="2">
+        <v>4.3760000000000003</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.85423099999999996</v>
+      </c>
+      <c r="P37" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R37" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.51438899999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.846777</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.81964899999999996</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.635884</v>
+      </c>
+      <c r="L38" s="2">
+        <v>334.04489999999998</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.846777</v>
+      </c>
+      <c r="P38" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R38" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.47710399999999997</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.83611000000000002</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.65544599999999997</v>
+      </c>
+      <c r="L39" s="2">
+        <v>330.48989999999998</v>
+      </c>
+      <c r="M39" s="2">
+        <v>4.5839999999999996</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.85897900000000005</v>
+      </c>
+      <c r="P39" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R39" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.50669600000000004</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.827878</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.65412499999999996</v>
+      </c>
+      <c r="L40" s="2">
+        <v>331.2534</v>
+      </c>
+      <c r="M40" s="2">
+        <v>4.5739999999999998</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.85304400000000002</v>
+      </c>
+      <c r="P40" s="2">
+        <v>6063</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1515</v>
+      </c>
+      <c r="R40" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.48499199999999998</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.85218400000000005</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.83419200000000004</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.64182099999999997</v>
+      </c>
+      <c r="L41" s="2">
+        <v>331.35050000000001</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.85218400000000005</v>
+      </c>
+      <c r="P41" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R41" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.50773999999999997</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.85325700000000004</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.82527600000000001</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.63852200000000003</v>
+      </c>
+      <c r="L42" s="2">
+        <v>342.0206</v>
+      </c>
+      <c r="M42" s="2">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.85325700000000004</v>
+      </c>
+      <c r="P42" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R42" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.50295900000000004</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.84869600000000001</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.822245</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.63852200000000003</v>
+      </c>
+      <c r="L43" s="2">
+        <v>332.18180000000001</v>
+      </c>
+      <c r="M43" s="2">
         <v>4.5640000000000001</v>
       </c>
-      <c r="N30">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="O30">
-        <v>0.99720490217157598</v>
-      </c>
-      <c r="P30">
-        <v>5821</v>
-      </c>
-      <c r="Q30">
-        <v>1455</v>
-      </c>
-      <c r="R30">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="N43" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.84869600000000001</v>
+      </c>
+      <c r="P43" s="2">
+        <v>6062</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1516</v>
+      </c>
+      <c r="R43" s="2">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H44">
+        <v>0.46793022751808172</v>
+      </c>
+      <c r="I44">
+        <v>0.8606955508062949</v>
+      </c>
+      <c r="J44">
+        <v>0.83737652811735941</v>
+      </c>
+      <c r="K44">
+        <v>0.65808580858085808</v>
+      </c>
+      <c r="L44">
+        <v>331.27600000000001</v>
+      </c>
+      <c r="M44">
+        <v>4.5730000000000004</v>
+      </c>
+      <c r="N44">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="O44">
+        <v>0.8606955508062949</v>
+      </c>
+      <c r="P44">
+        <v>6063</v>
+      </c>
+      <c r="Q44">
+        <v>1515</v>
+      </c>
+      <c r="R44">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>1E-4</v>
-      </c>
-      <c r="G31">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H31">
-        <v>3.2223065500147641E-4</v>
-      </c>
-      <c r="I31">
-        <v>0.99978800084799657</v>
-      </c>
-      <c r="J31">
-        <v>0.99975124378109459</v>
-      </c>
-      <c r="K31">
-        <v>0.99931318681318682</v>
-      </c>
-      <c r="L31">
-        <v>318.51409999999998</v>
-      </c>
-      <c r="M31">
-        <v>4.5709999999999997</v>
-      </c>
-      <c r="N31">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="O31">
-        <v>0.99978800084799657</v>
-      </c>
-      <c r="P31">
-        <v>5820</v>
-      </c>
-      <c r="Q31">
-        <v>1456</v>
-      </c>
-      <c r="R31">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>1E-4</v>
-      </c>
-      <c r="G32">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H32">
-        <v>1.889495033537969E-4</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>322.76229999999998</v>
-      </c>
-      <c r="M32">
-        <v>4.508</v>
-      </c>
-      <c r="N32">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>5821</v>
-      </c>
-      <c r="Q32">
-        <v>1455</v>
-      </c>
-      <c r="R32">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>1E-4</v>
-      </c>
-      <c r="G33">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H33">
-        <v>3.6245261435396969E-4</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>315.726</v>
-      </c>
-      <c r="M33">
-        <v>4.6079999999999997</v>
-      </c>
-      <c r="N33">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H45">
+        <v>0.50637930631637573</v>
+      </c>
+      <c r="I45">
+        <v>0.84891808346213293</v>
+      </c>
+      <c r="J45">
+        <v>0.82217072673187164</v>
+      </c>
+      <c r="K45">
+        <v>0.63564356435643565</v>
+      </c>
+      <c r="L45">
+        <v>330.14339999999999</v>
+      </c>
+      <c r="M45">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="N45">
         <v>0.57599999999999996</v>
       </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>5821</v>
-      </c>
-      <c r="Q33">
-        <v>1455</v>
-      </c>
-      <c r="R33">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>1E-4</v>
-      </c>
-      <c r="G34">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H34">
-        <v>8.3452127873897552E-3</v>
-      </c>
-      <c r="I34">
-        <v>0.99873790492217074</v>
-      </c>
-      <c r="J34">
-        <v>0.99853319227717541</v>
-      </c>
-      <c r="K34">
-        <v>0.99587628865979383</v>
-      </c>
-      <c r="L34">
-        <v>324.03120000000001</v>
-      </c>
-      <c r="M34">
-        <v>4.49</v>
-      </c>
-      <c r="N34">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="O34">
-        <v>0.99873790492217074</v>
-      </c>
-      <c r="P34">
-        <v>5821</v>
-      </c>
-      <c r="Q34">
-        <v>1455</v>
-      </c>
-      <c r="R34">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G35">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H35">
-        <v>0.50947898626327515</v>
-      </c>
-      <c r="I35">
-        <v>0.85434116445352404</v>
-      </c>
-      <c r="J35">
-        <v>0.8324389502867342</v>
-      </c>
-      <c r="K35">
-        <v>0.65521978021978022</v>
-      </c>
-      <c r="L35">
-        <v>316.56400000000002</v>
-      </c>
-      <c r="M35">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="N35">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="O35">
-        <v>0.85434116445352404</v>
-      </c>
-      <c r="P35">
-        <v>5820</v>
-      </c>
-      <c r="Q35">
-        <v>1456</v>
-      </c>
-      <c r="R35">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G36">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H36">
-        <v>0.50342357158660889</v>
-      </c>
-      <c r="I36">
-        <v>0.85110704854763353</v>
-      </c>
-      <c r="J36">
-        <v>0.82726976604199132</v>
-      </c>
-      <c r="K36">
-        <v>0.64329896907216499</v>
-      </c>
-      <c r="L36">
-        <v>334.62799999999999</v>
-      </c>
-      <c r="M36">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="O36">
-        <v>0.85110704854763353</v>
-      </c>
-      <c r="P36">
-        <v>5821</v>
-      </c>
-      <c r="Q36">
-        <v>1455</v>
-      </c>
-      <c r="R36">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G37">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H37">
-        <v>0.44370585680007929</v>
-      </c>
-      <c r="I37">
-        <v>0.86006683375104431</v>
-      </c>
-      <c r="J37">
-        <v>0.84381916682801628</v>
-      </c>
-      <c r="K37">
-        <v>0.6563573883161512</v>
-      </c>
-      <c r="L37">
-        <v>337.93090000000001</v>
-      </c>
-      <c r="M37">
-        <v>4.306</v>
-      </c>
-      <c r="N37">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="O37">
-        <v>0.86006683375104431</v>
-      </c>
-      <c r="P37">
-        <v>5821</v>
-      </c>
-      <c r="Q37">
-        <v>1455</v>
-      </c>
-      <c r="R37">
-        <v>7276</v>
+      <c r="O45">
+        <v>0.84891808346213293</v>
+      </c>
+      <c r="P45">
+        <v>6063</v>
+      </c>
+      <c r="Q45">
+        <v>1515</v>
+      </c>
+      <c r="R45">
+        <v>7578</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4C0E6-1AEA-0E4A-B224-E2B962D03FAE}">
-  <dimension ref="A2:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.50374600000000003</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.84873399999999999</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.82803099999999996</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.644231</v>
-      </c>
-      <c r="L4" s="3">
-        <v>327.07380000000001</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4.452</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.84873399999999999</v>
-      </c>
-      <c r="P4" s="3">
-        <v>5820</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1456</v>
-      </c>
-      <c r="R4" s="3">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.50621799999999995</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.850163</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.82680600000000004</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.64123699999999995</v>
-      </c>
-      <c r="L5" s="3">
-        <v>321.95460000000003</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4.5190000000000001</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.850163</v>
-      </c>
-      <c r="P5" s="3">
-        <v>5821</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1455</v>
-      </c>
-      <c r="R5" s="3">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.453571</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.86587199999999998</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.85063500000000003</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.668041</v>
-      </c>
-      <c r="L6" s="3">
-        <v>347.02190000000002</v>
-      </c>
-      <c r="M6" s="3">
-        <v>4.1929999999999996</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.86587199999999998</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5821</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1455</v>
-      </c>
-      <c r="R6" s="3">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.496257</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.85091499999999998</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.83030300000000001</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.64604799999999996</v>
-      </c>
-      <c r="L7" s="3">
-        <v>324.49599999999998</v>
-      </c>
-      <c r="M7" s="3">
-        <v>4.484</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.85091499999999998</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5821</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1455</v>
-      </c>
-      <c r="R7" s="3">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.14118900000000001</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.96324500000000002</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.95863299999999996</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.89896900000000002</v>
-      </c>
-      <c r="L8" s="3">
-        <v>321.11610000000002</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4.5309999999999997</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.96324500000000002</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5821</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1455</v>
-      </c>
-      <c r="R8" s="3">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G9">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H9">
-        <v>0.50947898626327515</v>
-      </c>
-      <c r="I9">
-        <v>0.85434116445352404</v>
-      </c>
-      <c r="J9">
-        <v>0.8324389502867342</v>
-      </c>
-      <c r="K9">
-        <v>0.65521978021978022</v>
-      </c>
-      <c r="L9">
-        <v>316.56400000000002</v>
-      </c>
-      <c r="M9">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="N9">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="O9">
-        <v>0.85434116445352404</v>
-      </c>
-      <c r="P9">
-        <v>5820</v>
-      </c>
-      <c r="Q9">
-        <v>1456</v>
-      </c>
-      <c r="R9">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H10">
-        <v>0.50342357158660889</v>
-      </c>
-      <c r="I10">
-        <v>0.85110704854763353</v>
-      </c>
-      <c r="J10">
-        <v>0.82726976604199132</v>
-      </c>
-      <c r="K10">
-        <v>0.64329896907216499</v>
-      </c>
-      <c r="L10">
-        <v>334.62799999999999</v>
-      </c>
-      <c r="M10">
-        <v>4.3479999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="O10">
-        <v>0.85110704854763353</v>
-      </c>
-      <c r="P10">
-        <v>5821</v>
-      </c>
-      <c r="Q10">
-        <v>1455</v>
-      </c>
-      <c r="R10">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G11">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="H11">
-        <v>0.44370585680007929</v>
-      </c>
-      <c r="I11">
-        <v>0.86006683375104431</v>
-      </c>
-      <c r="J11">
-        <v>0.84381916682801628</v>
-      </c>
-      <c r="K11">
-        <v>0.6563573883161512</v>
-      </c>
-      <c r="L11">
-        <v>337.93090000000001</v>
-      </c>
-      <c r="M11">
-        <v>4.306</v>
-      </c>
-      <c r="N11">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="O11">
-        <v>0.86006683375104431</v>
-      </c>
-      <c r="P11">
-        <v>5821</v>
-      </c>
-      <c r="Q11">
-        <v>1455</v>
-      </c>
-      <c r="R11">
-        <v>7276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>